--- a/download/hot_movies.xlsx
+++ b/download/hot_movies.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="20230721-热门电影" sheetId="2" r:id="rId4"/>
+    <sheet name="20230721-热门电影" sheetId="2" r:id="rId2"/>
+    <sheet name="20230724-热门电影" sheetId="3" r:id="rId6"/>
+    <sheet name="20230725-热门电影" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="562">
   <si>
     <t>电影名字</t>
   </si>
@@ -456,18 +458,1269 @@
   </si>
   <si>
     <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2508751878.jpg</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>评价人数</t>
+  </si>
+  <si>
+    <t>上映时间</t>
+  </si>
+  <si>
+    <t>电影时长</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>导演</t>
+  </si>
+  <si>
+    <t>主演</t>
+  </si>
+  <si>
+    <t>电影简介</t>
+  </si>
+  <si>
+    <t>预告视频链接</t>
+  </si>
+  <si>
+    <t>购票链接</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>164704</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>148分钟</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>乌尔善</t>
+  </si>
+  <si>
+    <t>费翔 / 李雪健 / 黄渤</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/10604086/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=10604086</t>
+  </si>
+  <si>
+    <t>芭比 Barbie</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>175322</t>
+  </si>
+  <si>
+    <t>114分钟</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>格蕾塔·葛韦格</t>
+  </si>
+  <si>
+    <t>玛格特·罗比 / 瑞恩·高斯林 / 亚美莉卡·费雷拉</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/4058939/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=4058939</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>43416</t>
+  </si>
+  <si>
+    <t>113分钟</t>
+  </si>
+  <si>
+    <t>宋阳</t>
+  </si>
+  <si>
+    <t>艾伦 / 沈腾 / 陶慧</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35228789/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35228789</t>
+  </si>
+  <si>
+    <t>258127</t>
+  </si>
+  <si>
+    <t>168分钟</t>
+  </si>
+  <si>
+    <t>谢君伟</t>
+  </si>
+  <si>
+    <t>杨天翔 / 凌振赫 / 吴俊全</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36035676/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=36035676</t>
+  </si>
+  <si>
+    <t>碟中谍7：致命清算（上） Mission: Impossible – Dead Reckoning Part One</t>
+  </si>
+  <si>
+    <t>161499</t>
+  </si>
+  <si>
+    <t>164分钟</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>克里斯托弗·麦奎里</t>
+  </si>
+  <si>
+    <t>汤姆·克鲁斯 / 海莉·阿特维尔 / 文·瑞姆斯</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/30433455/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=30433455</t>
+  </si>
+  <si>
+    <t>42243</t>
+  </si>
+  <si>
+    <t>91分钟</t>
+  </si>
+  <si>
+    <t>夏铭泽</t>
+  </si>
+  <si>
+    <t>邢原源 / 王博文 / 高禹恒</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34880018/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=34880018</t>
+  </si>
+  <si>
+    <t>198645</t>
+  </si>
+  <si>
+    <t>117分钟</t>
+  </si>
+  <si>
+    <t>王宝强</t>
+  </si>
+  <si>
+    <t>王宝强 / 陈永胜 / 史彭元</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35765480/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35765480</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>607721</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>121 分钟</t>
+  </si>
+  <si>
+    <t>崔睿</t>
+  </si>
+  <si>
+    <t>朱一龙 / 倪妮 / 文咏珊</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35660795/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35660795</t>
+  </si>
+  <si>
+    <t>扫毒3：人在天涯 掃毒3：人在天涯</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>28244</t>
+  </si>
+  <si>
+    <t>124分钟</t>
+  </si>
+  <si>
+    <t>邱礼涛</t>
+  </si>
+  <si>
+    <t>刘青云 / 古天乐 / 郭富城</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35013359/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35013359</t>
+  </si>
+  <si>
+    <t>101324</t>
+  </si>
+  <si>
+    <t>116分钟</t>
+  </si>
+  <si>
+    <t>韩延</t>
+  </si>
+  <si>
+    <t>倪大红 / 惠英红 / 梁家辉</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35818074/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35818074</t>
+  </si>
+  <si>
+    <t>变形金刚：超能勇士崛起 Transformers: Rise of the Beasts</t>
+  </si>
+  <si>
+    <t>129738</t>
+  </si>
+  <si>
+    <t>128分钟(中国大陆)</t>
+  </si>
+  <si>
+    <t>小斯蒂芬·卡普尔</t>
+  </si>
+  <si>
+    <t>安东尼·拉莫斯 / 多米尼克·菲什巴克 / 彼特·库伦</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/26634250/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=26634250</t>
+  </si>
+  <si>
+    <t>夺宝奇兵5：命运转盘 Indiana Jones and the Dial of Destiny</t>
+  </si>
+  <si>
+    <t>22981</t>
+  </si>
+  <si>
+    <t>155分钟</t>
+  </si>
+  <si>
+    <t>詹姆斯·曼高德</t>
+  </si>
+  <si>
+    <t>哈里森·福特 / 菲比·沃勒-布里奇 / 安东尼奥·班德拉斯</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/3819860/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=3819860</t>
+  </si>
+  <si>
+    <t>百变马丁：怪兽大作战</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>87分钟</t>
+  </si>
+  <si>
+    <t>张天晓</t>
+  </si>
+  <si>
+    <t>姚培华 / 秦紫翼 / 刘方芳</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34950174/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=34950174</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34950174/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2895602695.jpg</t>
+  </si>
+  <si>
+    <t>疯狂元素城 Elemental</t>
+  </si>
+  <si>
+    <t>53554</t>
+  </si>
+  <si>
+    <t>102分钟</t>
+  </si>
+  <si>
+    <t>彼得·孙</t>
+  </si>
+  <si>
+    <t>莉娅·刘易斯 / 马莫多·阿西 / 罗纳尔多·德尔·卡门</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35901878/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35901878</t>
+  </si>
+  <si>
+    <t>蜘蛛侠：纵横宇宙 Spider-Man: Across the Spider-Verse</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>337446</t>
+  </si>
+  <si>
+    <t>140分钟</t>
+  </si>
+  <si>
+    <t>乔伊姆·多斯·桑托斯</t>
+  </si>
+  <si>
+    <t>沙梅克·摩尔 / 海莉·斯坦菲尔德 / 奥斯卡·伊萨克</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/30391186/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=30391186</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>89分钟</t>
+  </si>
+  <si>
+    <t>冯操</t>
+  </si>
+  <si>
+    <t>张嘉骐 / 吴若萱 / 何沛祺</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36065713/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=36065713</t>
+  </si>
+  <si>
+    <t>记忆 Memoria</t>
+  </si>
+  <si>
+    <t>30561</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>136分钟</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>阿彼察邦·韦拉斯哈古</t>
+  </si>
+  <si>
+    <t>蒂尔达·斯文顿 / 艾格尼丝·布雷克 / 丹尼尔·希梅内斯·卡乔</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/30137576/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=30137576</t>
+  </si>
+  <si>
+    <t>人生路不熟</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>190399</t>
+  </si>
+  <si>
+    <t>100分钟</t>
+  </si>
+  <si>
+    <t>易小星</t>
+  </si>
+  <si>
+    <t>乔杉 / 范丞丞 / 马丽</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35653205/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35653205</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35653205/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2889864501.jpg</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>103分钟</t>
+  </si>
+  <si>
+    <t>高峰</t>
+  </si>
+  <si>
+    <t>张桐 / 陈都灵 / 白恩</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35539448/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35539448</t>
+  </si>
+  <si>
+    <t>276224</t>
+  </si>
+  <si>
+    <t>127分钟</t>
+  </si>
+  <si>
+    <t>刘晓世</t>
+  </si>
+  <si>
+    <t>王一博 / 胡军 / 周冬雨</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35209731/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35209731</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>时晓凡</t>
+  </si>
+  <si>
+    <t>刘雅瑟 / 王一钧 / 米歇尔·孙</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34853940/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=34853940</t>
+  </si>
+  <si>
+    <t>万湖会议 Die Wannseekonferenz</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>41353</t>
+  </si>
+  <si>
+    <t>108分钟</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>马蒂·格肖内克</t>
+  </si>
+  <si>
+    <t>菲利普·霍奇迈尔 / 约翰尼斯·艾麦亚 / 马克西米连·布鲁克纳</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35769174/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35769174</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35769174/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2892500011.jpg</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>李凤良</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35814090/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35814090</t>
+  </si>
+  <si>
+    <t>天空之城 天空の城ラピュタ</t>
+  </si>
+  <si>
+    <t>869820</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>125分钟</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>宫崎骏</t>
+  </si>
+  <si>
+    <t>田中真弓 / 横泽启子 / 初井言荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对天空的追逐，永不停止。 </t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1291583/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1291583</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>88分钟</t>
+  </si>
+  <si>
+    <t>徐铮</t>
+  </si>
+  <si>
+    <t>陈苏 / 郏捷 / 耿晨晨</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36107978/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=36107978</t>
+  </si>
+  <si>
+    <t>灌篮高手 The First Slam Dunk</t>
+  </si>
+  <si>
+    <t>275049</t>
+  </si>
+  <si>
+    <t>井上雄彦</t>
+  </si>
+  <si>
+    <t>仲村宗悟 / 笠间淳 / 木村昴</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35315950/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35315950</t>
+  </si>
+  <si>
+    <t>哆啦A梦：大雄与天空的理想乡 映画ドラえもん のび太と空の理想郷</t>
+  </si>
+  <si>
+    <t>19242</t>
+  </si>
+  <si>
+    <t>107分钟</t>
+  </si>
+  <si>
+    <t>堂山卓见</t>
+  </si>
+  <si>
+    <t>水田山葵 / 大原惠美 / 嘉数由美</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35967711/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35967711</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>94分钟</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36473852/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=36473852</t>
+  </si>
+  <si>
+    <t>午夜迷途</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>74分钟</t>
+  </si>
+  <si>
+    <t>张若以</t>
+  </si>
+  <si>
+    <t>单思杰 / 廖越 / 郭万超</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/27174274/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=27174274</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/27174274/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2892799691.jpg</t>
+  </si>
+  <si>
+    <t>蔑视 Le mépris</t>
+  </si>
+  <si>
+    <t>10384</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>让-吕克·戈达尔</t>
+  </si>
+  <si>
+    <t>碧姬·芭铎 / 米歇尔·皮科利 / 杰克·帕兰斯</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1303555/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1303555</t>
+  </si>
+  <si>
+    <t>怒火青春 La Haine</t>
+  </si>
+  <si>
+    <t>17717</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>98分钟</t>
+  </si>
+  <si>
+    <t>马修·卡索维茨</t>
+  </si>
+  <si>
+    <t>文森特·卡索 / 哈勃·孔黛 / 萨伊德·塔格马奥</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1306449/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1306449</t>
+  </si>
+  <si>
+    <t>独行杀手 Le samouraï</t>
+  </si>
+  <si>
+    <t>24417</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>105分钟</t>
+  </si>
+  <si>
+    <t>让-皮埃尔·梅尔维尔</t>
+  </si>
+  <si>
+    <t>阿兰·德龙 / 弗朗索瓦·佩里埃 / 娜塔莉·德龙</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1300966/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1300966</t>
+  </si>
+  <si>
+    <t>巧虎奇幻舞台历险记</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>75分钟</t>
+  </si>
+  <si>
+    <t>河村友宏</t>
+  </si>
+  <si>
+    <t>李晔 / 罗玉婷 / 沈达威</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35622479/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35622479</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35622479/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2892767855.jpg</t>
+  </si>
+  <si>
+    <t>一加一 Sympathy for the Devil</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>100 分钟</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>Sean / Mick / Brian</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1298862/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1298862</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>应云卫</t>
+  </si>
+  <si>
+    <t>王文娟 / 徐玉兰 / 钱妙花</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1937852/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1937852</t>
+  </si>
+  <si>
+    <t>安娜·玛格达丽娜·巴赫的编年史 Chronik der Anna Magdalena Bach</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>94 分钟</t>
+  </si>
+  <si>
+    <t>西德</t>
+  </si>
+  <si>
+    <t>Danièle</t>
+  </si>
+  <si>
+    <t>Eckart / Rainer / Gustav</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1418714/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1418714</t>
+  </si>
+  <si>
+    <t>我们不能白头到老 Nous ne vieillirons pas ensemble</t>
+  </si>
+  <si>
+    <t>2230</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Marlène / Jean / Christine</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1305619/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1305619</t>
+  </si>
+  <si>
+    <t>男孩遇见女孩 Boy Meets Girl</t>
+  </si>
+  <si>
+    <t>3267</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>埃里克·谢弗</t>
+  </si>
+  <si>
+    <t>迈克·韦尔奇 / 米歇尔·亨德利 / 亚历桑德拉·图申</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/25965348/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=25965348</t>
+  </si>
+  <si>
+    <t>在撒旦的阳光下 Sous le soleil de Satan</t>
+  </si>
+  <si>
+    <t>1770</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>莫里斯·皮亚拉</t>
+  </si>
+  <si>
+    <t>热拉尔·德帕迪约 / 桑德里娜·博内尔 / 莫里斯·皮亚拉</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1410735/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1410735</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>刘进</t>
+  </si>
+  <si>
+    <t>王茜华 / 丁志城 / 林静</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/6557029/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=6557029</t>
+  </si>
+  <si>
+    <t>坏血 Bad Blood</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>戴维·普拉克</t>
+  </si>
+  <si>
+    <t>泽维尔·塞缪尔 / 摩根·格莉芬</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/26797433/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=26797433</t>
+  </si>
+  <si>
+    <t>老兵新传</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>128分钟</t>
+  </si>
+  <si>
+    <t>沈浮</t>
+  </si>
+  <si>
+    <t>崔嵬 / 高博 / 孙永平</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/4073933/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=4073933</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/4073933/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img2.doubanio.com/view/photo/s_ratio_poster/public/p2633506801.jpg</t>
+  </si>
+  <si>
+    <t>19725</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>45分钟</t>
+  </si>
+  <si>
+    <t>中国香港</t>
+  </si>
+  <si>
+    <t>梅小青</t>
+  </si>
+  <si>
+    <t>蔡少芬 / 马浚伟 / 郭羡妮</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/1302832/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=1302832</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>俞克平</t>
+  </si>
+  <si>
+    <t>周东亮 / 倪同芳 / 董云华</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/26962478/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=26962478</t>
+  </si>
+  <si>
+    <t>检察风云</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>30589</t>
+  </si>
+  <si>
+    <t>112分钟</t>
+  </si>
+  <si>
+    <t>麦兆辉</t>
+  </si>
+  <si>
+    <t>黄景瑜 / 白百何 / 王丽坤</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34434003/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=34434003</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/34434003/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2890643247.jpg</t>
+  </si>
+  <si>
+    <t>北京2022</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>陆川</t>
+  </si>
+  <si>
+    <t>武大靖 / 任子威 / 苏翊鸣</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36251421/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=36251421</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/36251421/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2891832226.jpg</t>
+  </si>
+  <si>
+    <t>水边维纳斯</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>王林</t>
+  </si>
+  <si>
+    <t>李Q / 朱惠英 / 毛敏卓</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35489549/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35489549</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35489549/?from=showing</t>
+  </si>
+  <si>
+    <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2881593396.jpg</t>
+  </si>
+  <si>
+    <t>189575</t>
+  </si>
+  <si>
+    <t>213577</t>
+  </si>
+  <si>
+    <t>46894</t>
+  </si>
+  <si>
+    <t>267856</t>
+  </si>
+  <si>
+    <t>43703</t>
+  </si>
+  <si>
+    <t>165202</t>
+  </si>
+  <si>
+    <t>201826</t>
+  </si>
+  <si>
+    <t>611524</t>
+  </si>
+  <si>
+    <t>28533</t>
+  </si>
+  <si>
+    <t>101847</t>
+  </si>
+  <si>
+    <t>130601</t>
+  </si>
+  <si>
+    <t>23085</t>
+  </si>
+  <si>
+    <t>53793</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>337992</t>
+  </si>
+  <si>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>哈斯朝鲁</t>
+  </si>
+  <si>
+    <t>岳红 / 姚兵蓉 / 苏丽</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/subject/35516814/trailer</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/ticket/redirect/?movie_id=35516814</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>2159</t>
+  </si>
+  <si>
+    <t>30632</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>191181</t>
+  </si>
+  <si>
+    <t>276665</t>
+  </si>
+  <si>
+    <t>41415</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>275233</t>
+  </si>
+  <si>
+    <t>19289</t>
+  </si>
+  <si>
+    <t>870093</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>30619</t>
+  </si>
+  <si>
+    <t>17742</t>
+  </si>
+  <si>
+    <t>10387</t>
+  </si>
+  <si>
+    <t>24425</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2231</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>19729</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,10 +1747,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -758,17 +2019,3039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L14" t="s">
+        <v>252</v>
+      </c>
+      <c r="M14" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" t="s">
+        <v>275</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>289</v>
+      </c>
+      <c r="I19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" t="s">
+        <v>292</v>
+      </c>
+      <c r="M19" t="s">
+        <v>293</v>
+      </c>
+      <c r="N19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>297</v>
+      </c>
+      <c r="I20" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>299</v>
+      </c>
+      <c r="L20" t="s">
+        <v>300</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>303</v>
+      </c>
+      <c r="I21" t="s">
+        <v>304</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" t="s">
+        <v>306</v>
+      </c>
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>308</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I22" t="s">
+        <v>310</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>311</v>
+      </c>
+      <c r="L22" t="s">
+        <v>312</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>320</v>
+      </c>
+      <c r="L23" t="s">
+        <v>321</v>
+      </c>
+      <c r="M23" t="s">
+        <v>322</v>
+      </c>
+      <c r="N23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>325</v>
+      </c>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>326</v>
+      </c>
+      <c r="L24" t="s">
+        <v>327</v>
+      </c>
+      <c r="M24" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" t="s">
+        <v>330</v>
+      </c>
+      <c r="F25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" t="s">
+        <v>332</v>
+      </c>
+      <c r="H25" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" t="s">
+        <v>334</v>
+      </c>
+      <c r="J25" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" t="s">
+        <v>337</v>
+      </c>
+      <c r="M25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" t="s">
+        <v>341</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>342</v>
+      </c>
+      <c r="L26" t="s">
+        <v>343</v>
+      </c>
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" t="s">
+        <v>347</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L27" t="s">
+        <v>349</v>
+      </c>
+      <c r="M27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>355</v>
+      </c>
+      <c r="L28" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" t="s">
+        <v>357</v>
+      </c>
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" t="s">
+        <v>360</v>
+      </c>
+      <c r="M29" t="s">
+        <v>103</v>
+      </c>
+      <c r="N29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" t="s">
+        <v>366</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>367</v>
+      </c>
+      <c r="L30" t="s">
+        <v>368</v>
+      </c>
+      <c r="M30" t="s">
+        <v>369</v>
+      </c>
+      <c r="N30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" t="s">
+        <v>375</v>
+      </c>
+      <c r="I31" t="s">
+        <v>376</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>377</v>
+      </c>
+      <c r="L31" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+      <c r="E32" t="s">
+        <v>381</v>
+      </c>
+      <c r="F32" t="s">
+        <v>382</v>
+      </c>
+      <c r="G32" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" t="s">
+        <v>383</v>
+      </c>
+      <c r="I32" t="s">
+        <v>384</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>385</v>
+      </c>
+      <c r="L32" t="s">
+        <v>386</v>
+      </c>
+      <c r="M32" t="s">
+        <v>110</v>
+      </c>
+      <c r="N32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E33" t="s">
+        <v>389</v>
+      </c>
+      <c r="F33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G33" t="s">
+        <v>374</v>
+      </c>
+      <c r="H33" t="s">
+        <v>391</v>
+      </c>
+      <c r="I33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>393</v>
+      </c>
+      <c r="L33" t="s">
+        <v>394</v>
+      </c>
+      <c r="M33" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>397</v>
+      </c>
+      <c r="G34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" t="s">
+        <v>399</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" t="s">
+        <v>400</v>
+      </c>
+      <c r="L34" t="s">
+        <v>401</v>
+      </c>
+      <c r="M34" t="s">
+        <v>402</v>
+      </c>
+      <c r="N34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" t="s">
+        <v>407</v>
+      </c>
+      <c r="G35" t="s">
+        <v>408</v>
+      </c>
+      <c r="H35" t="s">
+        <v>409</v>
+      </c>
+      <c r="I35" t="s">
+        <v>410</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" t="s">
+        <v>411</v>
+      </c>
+      <c r="L35" t="s">
+        <v>412</v>
+      </c>
+      <c r="M35" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>413</v>
+      </c>
+      <c r="E36" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" t="s">
+        <v>415</v>
+      </c>
+      <c r="I36" t="s">
+        <v>416</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" t="s">
+        <v>417</v>
+      </c>
+      <c r="L36" t="s">
+        <v>418</v>
+      </c>
+      <c r="M36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>419</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" t="s">
+        <v>423</v>
+      </c>
+      <c r="I37" t="s">
+        <v>424</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" t="s">
+        <v>425</v>
+      </c>
+      <c r="L37" t="s">
+        <v>426</v>
+      </c>
+      <c r="M37" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>428</v>
+      </c>
+      <c r="E38" t="s">
+        <v>429</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>374</v>
+      </c>
+      <c r="H38" t="s">
+        <v>430</v>
+      </c>
+      <c r="I38" t="s">
+        <v>431</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>432</v>
+      </c>
+      <c r="L38" t="s">
+        <v>433</v>
+      </c>
+      <c r="M38" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" t="s">
+        <v>436</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" t="s">
+        <v>438</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" t="s">
+        <v>439</v>
+      </c>
+      <c r="L39" t="s">
+        <v>440</v>
+      </c>
+      <c r="M39" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>442</v>
+      </c>
+      <c r="E40" t="s">
+        <v>443</v>
+      </c>
+      <c r="F40" t="s">
+        <v>382</v>
+      </c>
+      <c r="G40" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" t="s">
+        <v>444</v>
+      </c>
+      <c r="I40" t="s">
+        <v>445</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>446</v>
+      </c>
+      <c r="L40" t="s">
+        <v>447</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" t="s">
+        <v>448</v>
+      </c>
+      <c r="E41" t="s">
+        <v>449</v>
+      </c>
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" t="s">
+        <v>450</v>
+      </c>
+      <c r="I41" t="s">
+        <v>451</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" t="s">
+        <v>452</v>
+      </c>
+      <c r="L41" t="s">
+        <v>453</v>
+      </c>
+      <c r="M41" t="s">
+        <v>142</v>
+      </c>
+      <c r="N41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" t="s">
+        <v>455</v>
+      </c>
+      <c r="E42" t="s">
+        <v>363</v>
+      </c>
+      <c r="F42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42" t="s">
+        <v>457</v>
+      </c>
+      <c r="I42" t="s">
+        <v>458</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" t="s">
+        <v>459</v>
+      </c>
+      <c r="L42" t="s">
+        <v>460</v>
+      </c>
+      <c r="M42" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>461</v>
+      </c>
+      <c r="B43" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" t="s">
+        <v>464</v>
+      </c>
+      <c r="F43" t="s">
+        <v>465</v>
+      </c>
+      <c r="G43" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" t="s">
+        <v>466</v>
+      </c>
+      <c r="I43" t="s">
+        <v>467</v>
+      </c>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" t="s">
+        <v>468</v>
+      </c>
+      <c r="L43" t="s">
+        <v>469</v>
+      </c>
+      <c r="M43" t="s">
+        <v>470</v>
+      </c>
+      <c r="N43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>472</v>
+      </c>
+      <c r="E44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" t="s">
+        <v>474</v>
+      </c>
+      <c r="G44" t="s">
+        <v>475</v>
+      </c>
+      <c r="H44" t="s">
+        <v>476</v>
+      </c>
+      <c r="I44" t="s">
+        <v>477</v>
+      </c>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" t="s">
+        <v>478</v>
+      </c>
+      <c r="L44" t="s">
+        <v>479</v>
+      </c>
+      <c r="M44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" t="s">
+        <v>480</v>
+      </c>
+      <c r="E45" t="s">
+        <v>481</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" t="s">
+        <v>482</v>
+      </c>
+      <c r="I45" t="s">
+        <v>483</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" t="s">
+        <v>484</v>
+      </c>
+      <c r="L45" t="s">
+        <v>485</v>
+      </c>
+      <c r="M45" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" t="s">
+        <v>65</v>
+      </c>
+      <c r="N46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s">
+        <v>65</v>
+      </c>
+      <c r="M47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48" t="s">
+        <v>65</v>
+      </c>
+      <c r="M48" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" t="s">
+        <v>65</v>
+      </c>
+      <c r="N49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" t="s">
+        <v>488</v>
+      </c>
+      <c r="D83" t="s">
+        <v>489</v>
+      </c>
+      <c r="E83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" t="s">
+        <v>490</v>
+      </c>
+      <c r="G83" t="s">
+        <v>161</v>
+      </c>
+      <c r="H83" t="s">
+        <v>491</v>
+      </c>
+      <c r="I83" t="s">
+        <v>492</v>
+      </c>
+      <c r="J83" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83" t="s">
+        <v>493</v>
+      </c>
+      <c r="L83" t="s">
+        <v>494</v>
+      </c>
+      <c r="M83" t="s">
+        <v>495</v>
+      </c>
+      <c r="N83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>497</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
+        <v>498</v>
+      </c>
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" t="s">
+        <v>296</v>
+      </c>
+      <c r="G87" t="s">
+        <v>161</v>
+      </c>
+      <c r="H87" t="s">
+        <v>499</v>
+      </c>
+      <c r="I87" t="s">
+        <v>500</v>
+      </c>
+      <c r="J87" t="s">
+        <v>65</v>
+      </c>
+      <c r="K87" t="s">
+        <v>501</v>
+      </c>
+      <c r="L87" t="s">
+        <v>502</v>
+      </c>
+      <c r="M87" t="s">
+        <v>503</v>
+      </c>
+      <c r="N87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>505</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>506</v>
+      </c>
+      <c r="E93" t="s">
+        <v>278</v>
+      </c>
+      <c r="F93" t="s">
+        <v>288</v>
+      </c>
+      <c r="G93" t="s">
+        <v>161</v>
+      </c>
+      <c r="H93" t="s">
+        <v>507</v>
+      </c>
+      <c r="I93" t="s">
+        <v>508</v>
+      </c>
+      <c r="J93" t="s">
+        <v>65</v>
+      </c>
+      <c r="K93" t="s">
+        <v>509</v>
+      </c>
+      <c r="L93" t="s">
+        <v>510</v>
+      </c>
+      <c r="M93" t="s">
+        <v>511</v>
+      </c>
+      <c r="N93" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -780,13 +5063,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -794,83 +5107,263 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>514</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>516</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>517</v>
+      </c>
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -878,13 +5371,43 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="N8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -892,27 +5415,87 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>521</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="N10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -920,167 +5503,527 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" t="s">
+        <v>230</v>
+      </c>
+      <c r="M11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="N11" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="N12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="N13" t="s">
         <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>525</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" t="s">
+        <v>259</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>526</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>527</v>
+      </c>
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>528</v>
+      </c>
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I17" t="s">
+        <v>530</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" t="s">
+        <v>531</v>
+      </c>
+      <c r="L17" t="s">
+        <v>532</v>
+      </c>
+      <c r="M17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>533</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>298</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" t="s">
+        <v>300</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>534</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>535</v>
+      </c>
+      <c r="E20" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" t="s">
+        <v>281</v>
+      </c>
+      <c r="I20" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" t="s">
+        <v>283</v>
+      </c>
+      <c r="L20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>536</v>
+      </c>
+      <c r="E21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" t="s">
+        <v>310</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>311</v>
+      </c>
+      <c r="L21" t="s">
+        <v>312</v>
+      </c>
+      <c r="M21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>537</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>289</v>
+      </c>
+      <c r="I22" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" t="s">
+        <v>291</v>
+      </c>
+      <c r="L22" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" t="s">
+        <v>293</v>
+      </c>
+      <c r="N22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="23">
@@ -1088,265 +6031,1539 @@
         <v>83</v>
       </c>
       <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>538</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" t="s">
+        <v>304</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
+      <c r="N23" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>539</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" t="s">
+        <v>317</v>
+      </c>
+      <c r="H24" t="s">
+        <v>318</v>
+      </c>
+      <c r="I24" t="s">
+        <v>319</v>
+      </c>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" t="s">
+        <v>320</v>
+      </c>
+      <c r="L24" t="s">
+        <v>321</v>
+      </c>
+      <c r="M24" t="s">
+        <v>322</v>
+      </c>
+      <c r="N24" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>540</v>
+      </c>
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" t="s">
+        <v>342</v>
+      </c>
+      <c r="L25" t="s">
+        <v>343</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>541</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" t="s">
+        <v>325</v>
+      </c>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" t="s">
+        <v>326</v>
+      </c>
+      <c r="L26" t="s">
+        <v>327</v>
+      </c>
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>542</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" t="s">
+        <v>347</v>
+      </c>
+      <c r="J27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L27" t="s">
+        <v>349</v>
+      </c>
+      <c r="M27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>543</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>355</v>
+      </c>
+      <c r="L28" t="s">
+        <v>356</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>328</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>544</v>
+      </c>
+      <c r="E29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H29" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" t="s">
+        <v>337</v>
+      </c>
+      <c r="M29" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>545</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" t="s">
+        <v>359</v>
+      </c>
+      <c r="L30" t="s">
+        <v>360</v>
+      </c>
+      <c r="M30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>546</v>
+      </c>
+      <c r="E31" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" t="s">
+        <v>364</v>
+      </c>
+      <c r="G31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" t="s">
+        <v>365</v>
+      </c>
+      <c r="I31" t="s">
+        <v>366</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" t="s">
+        <v>367</v>
+      </c>
+      <c r="L31" t="s">
+        <v>368</v>
+      </c>
+      <c r="M31" t="s">
+        <v>369</v>
+      </c>
+      <c r="N31" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>486</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>547</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>488</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>548</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
+        <v>490</v>
+      </c>
+      <c r="G32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>491</v>
+      </c>
+      <c r="I32" t="s">
+        <v>492</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>493</v>
+      </c>
+      <c r="L32" t="s">
+        <v>494</v>
+      </c>
+      <c r="M32" t="s">
+        <v>495</v>
+      </c>
+      <c r="N32" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>549</v>
+      </c>
+      <c r="E33" t="s">
+        <v>381</v>
+      </c>
+      <c r="F33" t="s">
+        <v>382</v>
+      </c>
+      <c r="G33" t="s">
+        <v>374</v>
+      </c>
+      <c r="H33" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" t="s">
+        <v>384</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" t="s">
+        <v>385</v>
+      </c>
+      <c r="L33" t="s">
+        <v>386</v>
+      </c>
+      <c r="M33" t="s">
+        <v>110</v>
+      </c>
+      <c r="N33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>371</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>550</v>
+      </c>
+      <c r="E34" t="s">
+        <v>373</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" t="s">
+        <v>375</v>
+      </c>
+      <c r="I34" t="s">
+        <v>376</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" t="s">
+        <v>377</v>
+      </c>
+      <c r="L34" t="s">
+        <v>378</v>
+      </c>
+      <c r="M34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>387</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>551</v>
+      </c>
+      <c r="E35" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" t="s">
+        <v>390</v>
+      </c>
+      <c r="G35" t="s">
+        <v>374</v>
+      </c>
+      <c r="H35" t="s">
+        <v>391</v>
+      </c>
+      <c r="I35" t="s">
+        <v>392</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" t="s">
+        <v>393</v>
+      </c>
+      <c r="L35" t="s">
+        <v>394</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>497</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>552</v>
+      </c>
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" t="s">
+        <v>499</v>
+      </c>
+      <c r="I36" t="s">
+        <v>500</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" t="s">
+        <v>501</v>
+      </c>
+      <c r="L36" t="s">
+        <v>502</v>
+      </c>
+      <c r="M36" t="s">
+        <v>503</v>
+      </c>
+      <c r="N36" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>553</v>
+      </c>
+      <c r="E37" t="s">
+        <v>414</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" t="s">
+        <v>415</v>
+      </c>
+      <c r="I37" t="s">
+        <v>416</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" t="s">
+        <v>417</v>
+      </c>
+      <c r="L37" t="s">
+        <v>418</v>
+      </c>
+      <c r="M37" t="s">
+        <v>130</v>
+      </c>
+      <c r="N37" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>505</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>554</v>
+      </c>
+      <c r="E38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" t="s">
+        <v>507</v>
+      </c>
+      <c r="I38" t="s">
+        <v>508</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>509</v>
+      </c>
+      <c r="L38" t="s">
+        <v>510</v>
+      </c>
+      <c r="M38" t="s">
+        <v>511</v>
+      </c>
+      <c r="N38" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>555</v>
+      </c>
+      <c r="E39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F39" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39" t="s">
+        <v>422</v>
+      </c>
+      <c r="H39" t="s">
+        <v>423</v>
+      </c>
+      <c r="I39" t="s">
+        <v>424</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39" t="s">
+        <v>426</v>
+      </c>
+      <c r="M39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N39" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>556</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" t="s">
+        <v>398</v>
+      </c>
+      <c r="I40" t="s">
+        <v>399</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>400</v>
+      </c>
+      <c r="L40" t="s">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s">
+        <v>402</v>
+      </c>
+      <c r="N40" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>557</v>
+      </c>
+      <c r="E41" t="s">
+        <v>429</v>
+      </c>
+      <c r="F41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G41" t="s">
+        <v>374</v>
+      </c>
+      <c r="H41" t="s">
+        <v>430</v>
+      </c>
+      <c r="I41" t="s">
+        <v>431</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" t="s">
+        <v>432</v>
+      </c>
+      <c r="L41" t="s">
+        <v>433</v>
+      </c>
+      <c r="M41" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" t="s">
+        <v>443</v>
+      </c>
+      <c r="F42" t="s">
+        <v>382</v>
+      </c>
+      <c r="G42" t="s">
+        <v>374</v>
+      </c>
+      <c r="H42" t="s">
+        <v>444</v>
+      </c>
+      <c r="I42" t="s">
+        <v>445</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" t="s">
+        <v>446</v>
+      </c>
+      <c r="L42" t="s">
+        <v>447</v>
+      </c>
+      <c r="M42" t="s">
+        <v>124</v>
+      </c>
+      <c r="N42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" t="s">
+        <v>406</v>
+      </c>
+      <c r="F43" t="s">
+        <v>407</v>
+      </c>
+      <c r="G43" t="s">
+        <v>408</v>
+      </c>
+      <c r="H43" t="s">
+        <v>409</v>
+      </c>
+      <c r="I43" t="s">
+        <v>410</v>
+      </c>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" t="s">
+        <v>411</v>
+      </c>
+      <c r="L43" t="s">
+        <v>412</v>
+      </c>
+      <c r="M43" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F44" t="s">
+        <v>288</v>
+      </c>
+      <c r="G44" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" t="s">
+        <v>437</v>
+      </c>
+      <c r="I44" t="s">
+        <v>438</v>
+      </c>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" t="s">
+        <v>439</v>
+      </c>
+      <c r="L44" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" t="s">
+        <v>455</v>
+      </c>
+      <c r="E45" t="s">
+        <v>363</v>
+      </c>
+      <c r="F45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>456</v>
+      </c>
+      <c r="H45" t="s">
+        <v>457</v>
+      </c>
+      <c r="I45" t="s">
+        <v>458</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" t="s">
+        <v>459</v>
+      </c>
+      <c r="L45" t="s">
+        <v>460</v>
+      </c>
+      <c r="M45" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" t="s">
+        <v>448</v>
+      </c>
+      <c r="E46" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" t="s">
+        <v>450</v>
+      </c>
+      <c r="I46" t="s">
+        <v>451</v>
+      </c>
+      <c r="J46" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" t="s">
+        <v>452</v>
+      </c>
+      <c r="L46" t="s">
+        <v>453</v>
+      </c>
+      <c r="M46" t="s">
+        <v>142</v>
+      </c>
+      <c r="N46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" t="s">
+        <v>462</v>
+      </c>
+      <c r="C47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>559</v>
+      </c>
+      <c r="E47" t="s">
+        <v>464</v>
+      </c>
+      <c r="F47" t="s">
+        <v>465</v>
+      </c>
+      <c r="G47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" t="s">
+        <v>466</v>
+      </c>
+      <c r="I47" t="s">
+        <v>467</v>
+      </c>
+      <c r="J47" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" t="s">
+        <v>468</v>
+      </c>
+      <c r="L47" t="s">
+        <v>469</v>
+      </c>
+      <c r="M47" t="s">
+        <v>470</v>
+      </c>
+      <c r="N47" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
         <v>144</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>560</v>
+      </c>
+      <c r="E48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" t="s">
+        <v>474</v>
+      </c>
+      <c r="G48" t="s">
+        <v>475</v>
+      </c>
+      <c r="H48" t="s">
+        <v>476</v>
+      </c>
+      <c r="I48" t="s">
+        <v>477</v>
+      </c>
+      <c r="J48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" t="s">
+        <v>478</v>
+      </c>
+      <c r="L48" t="s">
+        <v>479</v>
+      </c>
+      <c r="M48" t="s">
         <v>145</v>
       </c>
-      <c r="C41" t="s">
+      <c r="N48" t="s">
         <v>146</v>
       </c>
-      <c r="D41" t="s">
-        <v>122</v>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" t="s">
+        <v>561</v>
+      </c>
+      <c r="E49" t="s">
+        <v>481</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>482</v>
+      </c>
+      <c r="I49" t="s">
+        <v>483</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" t="s">
+        <v>484</v>
+      </c>
+      <c r="L49" t="s">
+        <v>485</v>
+      </c>
+      <c r="M49" t="s">
+        <v>139</v>
+      </c>
+      <c r="N49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" t="s">
+        <v>65</v>
+      </c>
+      <c r="M51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52" t="s">
+        <v>65</v>
+      </c>
+      <c r="M52" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" t="s">
+        <v>65</v>
+      </c>
+      <c r="N53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" t="s">
+        <v>65</v>
+      </c>
+      <c r="M54" t="s">
+        <v>65</v>
+      </c>
+      <c r="N54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J55" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
